--- a/biology/Médecine/Philippe_Mouret/Philippe_Mouret.xlsx
+++ b/biology/Médecine/Philippe_Mouret/Philippe_Mouret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Mouret est un médecin français, né le 29 septembre 1938 à Lisieux et mort d'un cancer le 20 juin 2008[1] à Sainte-Euphémie. Il est l'inventeur de la cœlioscopie chirurgicale, parfois appelée seconde révolution française[2]. Elle a ouvert la voie à la chirurgie mini-invasive qui permet de réduire le stress chirurgical en permettant de recourir à des incisions beaucoup plus réduites que la chirurgie "classique" par laparotomie. Il a pratiqué une première chirurgicale mondiale avec une cholecystectomie par cœlioscopie en 1987 à la clinique de la Sauvegarde à Lyon (France).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Mouret est un médecin français, né le 29 septembre 1938 à Lisieux et mort d'un cancer le 20 juin 2008 à Sainte-Euphémie. Il est l'inventeur de la cœlioscopie chirurgicale, parfois appelée seconde révolution française. Elle a ouvert la voie à la chirurgie mini-invasive qui permet de réduire le stress chirurgical en permettant de recourir à des incisions beaucoup plus réduites que la chirurgie "classique" par laparotomie. Il a pratiqué une première chirurgicale mondiale avec une cholecystectomie par cœlioscopie en 1987 à la clinique de la Sauvegarde à Lyon (France).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Mouret est né le à 29 septembre 1938 à Lisieux en Normandie. Sa famille a ensuite rejoint Lyon en 1952. Il y a fait ses études de médecine et sa spécialisation en chirurgie.
 Dès 1968, il a eu l'idée d'utiliser la cœlioscopie, initialement réservée à la gynécologie pour pouvoir écarter un diagnostic d'appendicite sans ouvrir l'abdomen, technique de référence à l'époque en l'absence de scanner et d'échographie. 
 Peu encouragé par ses collègues qui préfèrent alors pratiquer de larges incisions, il décide de s'installer comme chirurgien libéral à la Clinique de la Sauvegarde à Lyon en 1970.
-En 1972 : il réalise la première intervention par cœlioscopie (libération d'une occlusion intestinale en sectionnant une bride)[3].
+En 1972 : il réalise la première intervention par cœlioscopie (libération d'une occlusion intestinale en sectionnant une bride).
 En 1983, il réalise la première appendicectomie sous cœlioscopie. 
 En 1987 : il réalise une première mondiale, une cholecystectomie par cœliochirurgie.
 Les premières intervention étaient réalisées par optique directe, l'opérateur étant le seul à visualiser son travail. Le développement technologique a permis ensuite de disposer de la vidéo-endoscopie (visualisation de l'intervention sur écran), ce qui rendait l'intervention plus facile à réaliser et à enseigner.
@@ -550,7 +564,9 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre associé de l’Académie Nationale de Chirurgie en 1993, puis Membre titulaire en 1999.
 En 1992, Prix DELANNOY ROBBE de l’Académie de Médecine.
@@ -559,7 +575,7 @@
 Prix de la Fondation Honda en septembre 2007
 Membre d’honneur de l’Association Française de Chirurgie en 2006.
 médaille d’or de la ville de Lyon en 2007.
-Prix d’honneur des Trophées de l’hospitalisation privée en 2008[4].</t>
+Prix d’honneur des Trophées de l’hospitalisation privée en 2008.</t>
         </is>
       </c>
     </row>
